--- a/Daily Plan.xlsx
+++ b/Daily Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>Order</t>
   </si>
@@ -112,18 +112,6 @@
     <t>Bổ sung các loại chi phí khác trong lập dự toán cho công trình. DB: OK</t>
   </si>
   <si>
-    <t>10h 30 - 12h</t>
-  </si>
-  <si>
-    <t>Confirm tính năng " Biên bản hiện trường" vs "nghiệm thu công việc vận chuyển"</t>
-  </si>
-  <si>
-    <t>Confirm nhập vật tư A cấp cột Khối lượng thiết kế</t>
-  </si>
-  <si>
-    <t>Vẽ bổ sung cột "công trình" màn hình thông báo</t>
-  </si>
-  <si>
     <t>Tài liệu công việc phát sinh nổi lên danh sách công việc nghiệm thu</t>
   </si>
   <si>
@@ -139,9 +127,6 @@
     <t>Tài liệu Nghiệm thu đưa vào sử dụng CT và Xác nhận thi công dở dang</t>
   </si>
   <si>
-    <t>Tài liệu giao nhiệm vụ giám sát</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
@@ -161,6 +146,24 @@
   </si>
   <si>
     <t>Code + Test ký CA</t>
+  </si>
+  <si>
+    <t>Commit code CA Sign</t>
+  </si>
+  <si>
+    <t>Find project RCP Eclipse</t>
+  </si>
+  <si>
+    <t>Read project RCP Eclipse</t>
+  </si>
+  <si>
+    <t>Talking Introduction ms and what next 3 years plan</t>
+  </si>
+  <si>
+    <t>Start writing Investment modules</t>
+  </si>
+  <si>
+    <t>10h - 10h 45</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -529,27 +532,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -594,6 +576,39 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -902,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,10 +938,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33"/>
+      <c r="C1" s="53"/>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
@@ -936,35 +951,39 @@
     </row>
     <row r="2" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="39">
-        <v>90</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>31</v>
+      <c r="C3" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="59">
+        <v>45</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="C4" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="19"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
     </row>
     <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -981,92 +1000,84 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
-    </row>
-    <row r="9" spans="1:5" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="8"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+    </row>
+    <row r="9" spans="1:5" s="52" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="49"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="51"/>
+      <c r="E9" s="50"/>
     </row>
     <row r="10" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="19"/>
-      <c r="C10" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="41"/>
+      <c r="C10" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="34"/>
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="41"/>
+      <c r="C11" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="34"/>
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="41"/>
+      <c r="C12" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="34"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
+    <row r="13" spans="1:5" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
     </row>
     <row r="14" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="40" t="s">
-        <v>37</v>
-      </c>
+      <c r="C14" s="33"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="40" t="s">
-        <v>38</v>
-      </c>
+      <c r="C15" s="33"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="19" t="s">
-        <v>39</v>
-      </c>
+      <c r="C16" s="19"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="19" t="s">
-        <v>40</v>
-      </c>
+      <c r="C17" s="19"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
@@ -1122,159 +1133,159 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="47"/>
+    <col min="1" max="1" width="9.140625" style="40"/>
     <col min="2" max="2" width="56.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>45</v>
+      <c r="A1" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="A2" s="51">
+      <c r="A2" s="44">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="52">
+      <c r="B2" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="45">
         <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="51">
+      <c r="A3" s="44">
         <v>2</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="53">
+      <c r="B3" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="46">
         <v>0.125</v>
       </c>
-      <c r="D3" s="48"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="A4" s="51">
+      <c r="A4" s="44">
         <v>3</v>
       </c>
-      <c r="B4" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="54">
+      <c r="B4" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="47">
         <v>0.25</v>
       </c>
-      <c r="D4" s="49"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="21"/>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
       <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="A5" s="51">
+      <c r="A5" s="44">
         <v>4</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="54">
+      <c r="B5" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="47">
         <v>0.125</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="24"/>
       <c r="F5" s="22"/>
       <c r="G5" s="24"/>
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="A6" s="51">
+      <c r="A6" s="44">
         <v>5</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="54">
+      <c r="B6" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="47">
         <v>0.25</v>
       </c>
-      <c r="D6" s="49"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="21"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="A7" s="51">
+      <c r="A7" s="44">
         <v>6</v>
       </c>
-      <c r="B7" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="54">
+      <c r="B7" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="47">
         <v>0.125</v>
       </c>
-      <c r="D7" s="49"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="21"/>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
       <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="A8" s="51">
+      <c r="A8" s="44">
         <v>7</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="54">
+      <c r="B8" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="47">
         <v>0.25</v>
       </c>
-      <c r="D8" s="49"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="21"/>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="51">
+      <c r="A9" s="44">
         <v>8</v>
       </c>
-      <c r="B9" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="54">
+      <c r="B9" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="47">
         <v>0.5</v>
       </c>
-      <c r="D9" s="49"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="21"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="25"/>
     </row>
     <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="51">
+      <c r="A10" s="44">
         <v>9</v>
       </c>
-      <c r="B10" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="54">
+      <c r="B10" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="47">
         <v>0.5</v>
       </c>
       <c r="D10" s="21"/>

--- a/Daily Plan.xlsx
+++ b/Daily Plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Order</t>
   </si>
@@ -151,19 +151,16 @@
     <t>Commit code CA Sign</t>
   </si>
   <si>
-    <t>Find project RCP Eclipse</t>
-  </si>
-  <si>
-    <t>Read project RCP Eclipse</t>
-  </si>
-  <si>
     <t>Talking Introduction ms and what next 3 years plan</t>
   </si>
   <si>
     <t>Start writing Investment modules</t>
   </si>
   <si>
-    <t>10h - 10h 45</t>
+    <t>Support Mr Diep</t>
+  </si>
+  <si>
+    <t>14h 45 - 15h 30</t>
   </si>
 </sst>
 </file>
@@ -436,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -583,6 +580,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -918,7 +918,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,10 +938,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53"/>
+      <c r="C1" s="54"/>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
@@ -951,39 +951,37 @@
     </row>
     <row r="2" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="59">
+      <c r="C3" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="59" t="s">
-        <v>48</v>
+      <c r="D3" s="60">
+        <v>45</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="19"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
     </row>
     <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -1000,28 +998,28 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
-    </row>
-    <row r="9" spans="1:5" s="52" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+    </row>
+    <row r="9" spans="1:5" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="49"/>
       <c r="B9" s="50"/>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="51"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="50"/>
     </row>
     <row r="10" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="19"/>
-      <c r="C10" s="33" t="s">
-        <v>44</v>
+      <c r="C10" s="51" t="s">
+        <v>46</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="8"/>
@@ -1029,9 +1027,7 @@
     <row r="11" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="33" t="s">
-        <v>45</v>
-      </c>
+      <c r="C11" s="33"/>
       <c r="D11" s="34"/>
       <c r="E11" s="8"/>
     </row>
@@ -1039,7 +1035,7 @@
       <c r="A12" s="10"/>
       <c r="B12" s="8"/>
       <c r="C12" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="8"/>
@@ -1048,7 +1044,7 @@
       <c r="A13" s="35"/>
       <c r="B13" s="36"/>
       <c r="C13" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>

--- a/Daily Plan.xlsx
+++ b/Daily Plan.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
@@ -376,6 +377,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -400,10 +405,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,7 +712,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,10 +732,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33"/>
+      <c r="C1" s="35"/>
       <c r="D1" s="26" t="s">
         <v>2</v>
       </c>
@@ -744,8 +745,8 @@
     </row>
     <row r="2" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="27"/>
       <c r="E2" s="5"/>
     </row>
@@ -755,10 +756,10 @@
       <c r="C3" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="41">
         <v>90</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="41" t="s">
         <v>37</v>
       </c>
     </row>
@@ -768,15 +769,15 @@
       <c r="C4" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -793,13 +794,13 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
     </row>
     <row r="9" spans="1:5" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
@@ -834,36 +835,28 @@
       <c r="C12" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="17">
-        <v>45</v>
-      </c>
+      <c r="D12" s="17"/>
       <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="29"/>
-      <c r="D13" s="15">
-        <v>45</v>
-      </c>
+      <c r="D13" s="15"/>
       <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="18"/>
-      <c r="D14" s="15">
-        <v>90</v>
-      </c>
+      <c r="D14" s="15"/>
       <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="18"/>
-      <c r="D15" s="15">
-        <v>30</v>
-      </c>
+      <c r="D15" s="15"/>
       <c r="E15" s="16"/>
     </row>
     <row r="16" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1074,10 +1067,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="40"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="31">
         <f>SUM(C2:C13)</f>
         <v>4.45</v>
@@ -1096,113 +1089,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7" style="41" customWidth="1"/>
-    <col min="2" max="2" width="40" style="42" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="42"/>
+    <col min="1" max="1" width="7" style="33" customWidth="1"/>
+    <col min="2" max="2" width="40" style="34" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="34" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="41">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="41">
+      <c r="A3" s="33">
         <v>2</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="34" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="41">
+      <c r="A4" s="33">
         <v>3</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="34" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="41">
+      <c r="A5" s="33">
         <v>4</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="34" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="41">
+      <c r="A6" s="33">
         <v>5</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="34" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="41">
+      <c r="A7" s="33">
         <v>6</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="34" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="41">
+      <c r="A8" s="33">
         <v>7</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="41">
+      <c r="A9" s="33">
         <v>8</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="41">
+      <c r="A10" s="33">
         <v>9</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="34" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="41">
+      <c r="A11" s="33">
         <v>10</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="34" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="41">
+      <c r="A12" s="33">
         <v>11</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="34" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1213,4 +1206,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Daily Plan.xlsx
+++ b/Daily Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>Order</t>
   </si>
@@ -76,18 +76,6 @@
     <t>Hợp đồng mua sắm chi phí</t>
   </si>
   <si>
-    <t>Hợp đồng xây lắp</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>List all things I must learn in next 6 months to be good preparation for switching job</t>
-  </si>
-  <si>
-    <t>Create detail schedule for studying CS 50 havard course</t>
-  </si>
-  <si>
     <t>Prototype</t>
   </si>
   <si>
@@ -130,14 +118,38 @@
     <t>Represent &amp; Refine Data</t>
   </si>
   <si>
-    <t>10h 45 - 12h</t>
+    <t>Đoàn</t>
+  </si>
+  <si>
+    <t>Hỗ trợ ThaoTTH cấu hình cho 200 công trình</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Hợp đồng xây lắp (Tái sử dụng của BBTT xây lắp)</t>
+  </si>
+  <si>
+    <t>install GCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement water.c </t>
+  </si>
+  <si>
+    <t>Implement mario.c</t>
+  </si>
+  <si>
+    <t>Implement greedy.c</t>
+  </si>
+  <si>
+    <t>13h 30 - 15h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,8 +206,20 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,8 +244,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -281,11 +311,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -353,10 +420,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -365,9 +428,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -402,8 +462,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,11 +821,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="26" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -745,68 +834,66 @@
     </row>
     <row r="2" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="27"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="41">
+      <c r="C3" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="38">
         <v>90</v>
       </c>
-      <c r="E3" s="41" t="s">
-        <v>37</v>
+      <c r="E3" s="38" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="27"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-    </row>
-    <row r="9" spans="1:5" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
+    </row>
+    <row r="9" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="30" t="s">
-        <v>21</v>
+      <c r="C9" s="49" t="s">
+        <v>34</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="16"/>
@@ -814,87 +901,120 @@
     <row r="10" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="18"/>
-      <c r="C10" s="30" t="s">
-        <v>22</v>
+      <c r="C10" s="27" t="s">
+        <v>37</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="1:5" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
-      <c r="B11" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="25"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="D11" s="17"/>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="32" t="s">
-        <v>15</v>
+      <c r="B12" s="18"/>
+      <c r="C12" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="16"/>
     </row>
-    <row r="13" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="15"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="17"/>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="15"/>
+      <c r="B14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="16"/>
     </row>
-    <row r="15" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="15"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="17"/>
       <c r="E15" s="16"/>
     </row>
-    <row r="16" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="10"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="12"/>
-    </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="D21" s="12"/>
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="D24" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -911,19 +1031,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="57.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="21"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>7</v>
       </c>
@@ -933,152 +1055,190 @@
       <c r="C1" s="22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31">
+      <c r="D1" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="D2" s="42">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31">
+    <row r="3" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="31">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
+      <c r="C3" s="39">
+        <v>0.75</v>
+      </c>
+      <c r="D3" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="31">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
+      <c r="C4" s="40"/>
+      <c r="D4" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28">
         <v>4</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="31">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
+      <c r="C5" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="D5" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28">
         <v>5</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="31">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
+      <c r="C6" s="39">
+        <v>0.75</v>
+      </c>
+      <c r="D6" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28">
         <v>6</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="31">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
+      <c r="C7" s="40"/>
+      <c r="D7" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="44" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
         <v>7</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="31">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
+      <c r="C8" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="44" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28">
         <v>8</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="31">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
+      <c r="C9" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="44" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28">
         <v>9</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="31">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
+      <c r="C10" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="44" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
         <v>10</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="31">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
+      <c r="C11" s="46">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="44" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28">
         <v>11</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="45"/>
+      <c r="D12" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28">
+        <v>12</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="41">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="31">
+      <c r="D13" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28">
+        <v>13</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="28">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="31">
-        <f>SUM(C2:C13)</f>
-        <v>4.45</v>
+      <c r="D14" s="42">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A14:B14"/>
+  <mergeCells count="2">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1095,108 +1255,108 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7" style="33" customWidth="1"/>
-    <col min="2" max="2" width="40" style="34" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="1" width="7" style="30" customWidth="1"/>
+    <col min="2" max="2" width="40" style="31" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="30">
+        <v>2</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="30">
+        <v>3</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="30">
+        <v>4</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="33">
-        <v>1</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="33">
-        <v>2</v>
-      </c>
-      <c r="B3" s="34" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="30">
+        <v>5</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="33">
-        <v>3</v>
-      </c>
-      <c r="B4" s="34" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="30">
+        <v>6</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="30">
+        <v>7</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="30">
+        <v>8</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="33">
-        <v>4</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="33">
-        <v>5</v>
-      </c>
-      <c r="B6" s="34" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="30">
+        <v>9</v>
+      </c>
+      <c r="B10" s="31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="33">
-        <v>6</v>
-      </c>
-      <c r="B7" s="34" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="30">
+        <v>10</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="33">
-        <v>7</v>
-      </c>
-      <c r="B8" s="34" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="30">
+        <v>11</v>
+      </c>
+      <c r="B12" s="31" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="33">
-        <v>8</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="33">
-        <v>9</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="33">
-        <v>10</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="33">
-        <v>11</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1212,7 +1372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>

--- a/Daily Plan.xlsx
+++ b/Daily Plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>Order</t>
   </si>
@@ -142,7 +142,10 @@
     <t>Implement greedy.c</t>
   </si>
   <si>
-    <t>13h 30 - 15h</t>
+    <t>Implement deleteFiles in C++</t>
+  </si>
+  <si>
+    <t>10h 30 - 12h</t>
   </si>
 </sst>
 </file>
@@ -251,7 +254,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -337,22 +340,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -390,12 +382,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -441,33 +427,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -484,15 +443,52 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -801,7 +797,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,11 +817,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="24" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -834,169 +830,177 @@
     </row>
     <row r="2" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="38">
+      <c r="C3" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="44">
         <v>90</v>
       </c>
-      <c r="E3" s="38" t="s">
-        <v>41</v>
+      <c r="E3" s="44" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="C4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
     </row>
     <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="25"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="25"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
     </row>
     <row r="9" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="49" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="16"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="27" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="16"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="27" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="16"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="27" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="16"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="27" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" spans="1:5" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="48" t="s">
+      <c r="D16" s="15"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="48" t="s">
+      <c r="D17" s="49"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="48" t="s">
+      <c r="D18" s="49"/>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D19" s="49"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="10"/>
+      <c r="C20" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="50"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="13"/>
+      <c r="C21" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="D21" s="10"/>
       <c r="E21" s="8"/>
     </row>
@@ -1034,204 +1038,204 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D14"/>
+      <selection activeCell="B5" sqref="B5:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="57.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="21"/>
+    <col min="3" max="3" width="15.5703125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="19"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:4" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28">
+    <row r="2" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="26">
         <v>0.75</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="31">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28">
+    <row r="3" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="45">
         <v>0.75</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28">
+    <row r="4" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="42">
+      <c r="C4" s="46"/>
+      <c r="D4" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+    <row r="5" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="26">
         <v>0.25</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
+    <row r="6" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
         <v>5</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="45">
         <v>0.75</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
+    <row r="7" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
         <v>6</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="42">
+      <c r="C7" s="46"/>
+      <c r="D7" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="44" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
+    <row r="8" spans="1:4" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
         <v>7</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="44" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
+    <row r="9" spans="1:4" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
         <v>8</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="44" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
+    <row r="10" spans="1:4" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
         <v>9</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="44" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
+    <row r="11" spans="1:4" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
         <v>10</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="35">
         <v>0.75</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="44" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28">
+    <row r="12" spans="1:4" s="33" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
         <v>11</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="42">
+      <c r="C12" s="34"/>
+      <c r="D12" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
+    <row r="13" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
         <v>12</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="30">
         <v>0.25</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28">
+    <row r="14" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26">
         <v>13</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="26">
         <v>0.25</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="31">
         <v>0</v>
       </c>
     </row>
@@ -1255,107 +1259,107 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7" style="30" customWidth="1"/>
-    <col min="2" max="2" width="40" style="31" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="31"/>
+    <col min="1" max="1" width="7" style="28" customWidth="1"/>
+    <col min="2" max="2" width="40" style="29" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="30">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="30">
+      <c r="A3" s="28">
         <v>2</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="29" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="30">
+      <c r="A4" s="28">
         <v>3</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="29" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="30">
+      <c r="A5" s="28">
         <v>4</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="29" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="30">
+      <c r="A6" s="28">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="29" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="30">
+      <c r="A7" s="28">
         <v>6</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="30">
+      <c r="A8" s="28">
         <v>7</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="29" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="30">
+      <c r="A9" s="28">
         <v>8</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="30">
+      <c r="A10" s="28">
         <v>9</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="29" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="30">
+      <c r="A11" s="28">
         <v>10</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="30">
+      <c r="A12" s="28">
         <v>11</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="29" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Daily Plan.xlsx
+++ b/Daily Plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Order</t>
   </si>
@@ -142,10 +142,10 @@
     <t>Implement greedy.c</t>
   </si>
   <si>
-    <t>Implement deleteFiles in C++</t>
-  </si>
-  <si>
-    <t>10h 30 - 12h</t>
+    <t>Implement credit.c</t>
+  </si>
+  <si>
+    <t>16h 15 --&gt; 17h 45</t>
   </si>
 </sst>
 </file>
@@ -222,7 +222,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,12 +247,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -344,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -485,9 +479,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -797,7 +788,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,9 +829,7 @@
     <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="27" t="s">
-        <v>14</v>
-      </c>
+      <c r="C3" s="27"/>
       <c r="D3" s="44">
         <v>90</v>
       </c>
@@ -852,7 +841,7 @@
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="25" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D4" s="44"/>
       <c r="E4" s="44"/>
@@ -980,7 +969,7 @@
     <row r="19" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="51" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="49"/>
@@ -989,7 +978,7 @@
     <row r="20" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="47" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="50"/>
@@ -998,7 +987,7 @@
     <row r="21" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="47" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="10"/>
@@ -1038,7 +1027,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,7 +1096,7 @@
       <c r="A5" s="26">
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="47" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="26">
@@ -1121,7 +1110,7 @@
       <c r="A6" s="26">
         <v>5</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="47" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="45">
@@ -1135,7 +1124,7 @@
       <c r="A7" s="26">
         <v>6</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="47" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="46"/>

--- a/Daily Plan.xlsx
+++ b/Daily Plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>Order</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Hợp đồng mua sắm chi phí</t>
   </si>
   <si>
-    <t>Prototype</t>
-  </si>
-  <si>
     <t>Skills/Knowledges</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>http://interactivepython.org/courselib/static/thinkcspy/index.html</t>
   </si>
   <si>
-    <t>Hadoop</t>
-  </si>
-  <si>
     <t>Pythoon</t>
   </si>
   <si>
@@ -130,22 +124,55 @@
     <t>Hợp đồng xây lắp (Tái sử dụng của BBTT xây lắp)</t>
   </si>
   <si>
-    <t>install GCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement water.c </t>
-  </si>
-  <si>
-    <t>Implement mario.c</t>
-  </si>
-  <si>
-    <t>Implement greedy.c</t>
-  </si>
-  <si>
-    <t>Implement credit.c</t>
-  </si>
-  <si>
-    <t>16h 15 --&gt; 17h 45</t>
+    <t>Kế hoạch lựa chọn nhà thầu đầu tư mua sắm</t>
+  </si>
+  <si>
+    <t>Gói thầu đầu tư mua sắm</t>
+  </si>
+  <si>
+    <t>Create the plan to update  Business analyst &amp; Prototype</t>
+  </si>
+  <si>
+    <t>Get information about the current job of KTDL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call Mr Cuong </t>
+  </si>
+  <si>
+    <t>Implement Vigenere</t>
+  </si>
+  <si>
+    <t>Big Data</t>
+  </si>
+  <si>
+    <t>Hadoop &amp; Spark</t>
+  </si>
+  <si>
+    <t>Vấn đề</t>
+  </si>
+  <si>
+    <t>Kế hoạch LCĐT kèm tờ trình mua sắm</t>
+  </si>
+  <si>
+    <t>Mua sắm nhỏ lẻ &lt; 20 M (có thể liên quan module kho)</t>
+  </si>
+  <si>
+    <t>Kế hoạch LNĐT chiến lược</t>
+  </si>
+  <si>
+    <t>Đề xuất cấp user</t>
+  </si>
+  <si>
+    <t>Báo cáo thống kê tình hình thực hiện module Đầu tư</t>
+  </si>
+  <si>
+    <t>Export nhân sự ngành dọc đầu tư (liên thông TTNS)</t>
+  </si>
+  <si>
+    <t>10h 30 - 12h</t>
+  </si>
+  <si>
+    <t>Clarify module LTHĐ phase 2</t>
   </si>
 </sst>
 </file>
@@ -437,12 +464,25 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -469,17 +509,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -788,7 +817,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,10 +837,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38"/>
+      <c r="C1" s="43"/>
       <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
@@ -821,37 +850,37 @@
     </row>
     <row r="2" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="23"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="44">
+      <c r="C3" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="49">
         <v>90</v>
       </c>
-      <c r="E3" s="44" t="s">
-        <v>42</v>
+      <c r="E3" s="49" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
     </row>
     <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -868,27 +897,27 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="36" t="s">
-        <v>34</v>
+      <c r="C9" s="42" t="s">
+        <v>39</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="42" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="15"/>
@@ -897,8 +926,8 @@
     <row r="11" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="36" t="s">
-        <v>38</v>
+      <c r="C11" s="39" t="s">
+        <v>51</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="14"/>
@@ -906,8 +935,8 @@
     <row r="12" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="36" t="s">
-        <v>39</v>
+      <c r="C12" s="39" t="s">
+        <v>40</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="14"/>
@@ -915,8 +944,8 @@
     <row r="13" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="36" t="s">
-        <v>40</v>
+      <c r="C13" s="39" t="s">
+        <v>38</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="14"/>
@@ -924,72 +953,56 @@
     <row r="14" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="25" t="s">
-        <v>41</v>
-      </c>
+      <c r="C14" s="39"/>
       <c r="D14" s="15"/>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="B15" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="21"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="15"/>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="17"/>
-      <c r="C16" s="37" t="s">
-        <v>15</v>
-      </c>
+      <c r="C16" s="39"/>
       <c r="D16" s="15"/>
       <c r="E16" s="14"/>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="49"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="36"/>
       <c r="E17" s="14"/>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="49"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="36"/>
       <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="49"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="36"/>
       <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="50"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="47" t="s">
-        <v>11</v>
-      </c>
+      <c r="C21" s="21"/>
       <c r="D21" s="10"/>
       <c r="E21" s="8"/>
     </row>
@@ -1024,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,7 +1048,7 @@
     <col min="2" max="2" width="57.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" style="19" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="19"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1049,189 +1062,208 @@
         <v>6</v>
       </c>
       <c r="D1" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
-        <v>1</v>
-      </c>
-      <c r="B2" s="37" t="s">
+      <c r="C2" s="20"/>
+    </row>
+    <row r="3" spans="1:4" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="20"/>
+    </row>
+    <row r="4" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C4" s="26">
         <v>0.75</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D4" s="31">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
-        <v>2</v>
-      </c>
-      <c r="B3" s="47" t="s">
+    <row r="5" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C5" s="50">
         <v>0.75</v>
-      </c>
-      <c r="D3" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
-        <v>3</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
-        <v>4</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="26">
-        <v>0.25</v>
       </c>
       <c r="D5" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="45">
-        <v>0.75</v>
-      </c>
+      <c r="B6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="51"/>
       <c r="D6" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="46"/>
+      <c r="B7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="26">
+        <v>0.25</v>
+      </c>
       <c r="D7" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+    <row r="8" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>33</v>
+        <v>10</v>
+      </c>
+      <c r="C8" s="50">
+        <v>0.75</v>
       </c>
       <c r="D8" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
+    <row r="9" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>33</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C9" s="51"/>
       <c r="D9" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+      <c r="A10" s="20">
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
+    <row r="11" spans="1:4" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
         <v>10</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="35">
-        <v>0.75</v>
+      <c r="B11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>31</v>
       </c>
       <c r="D11" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="33" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
+    <row r="12" spans="1:4" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
         <v>11</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="34"/>
+        <v>16</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>31</v>
+      </c>
       <c r="D12" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
+    <row r="13" spans="1:4" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
         <v>12</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="30">
-        <v>0.25</v>
+      <c r="B13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="35">
+        <v>0.75</v>
       </c>
       <c r="D13" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
+    <row r="14" spans="1:4" s="33" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
         <v>13</v>
       </c>
-      <c r="B14" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="26">
-        <v>0.25</v>
-      </c>
+      <c r="B14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="34"/>
       <c r="D14" s="31">
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
+        <v>14</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="D15" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20">
+        <v>15</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1243,14 +1275,15 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" style="28" customWidth="1"/>
     <col min="2" max="2" width="40" style="29" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="29"/>
+    <col min="3" max="3" width="62.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1258,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1266,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1274,7 +1307,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1282,10 +1315,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1293,7 +1326,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>24</v>
+        <v>42</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1301,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1309,7 +1345,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1317,7 +1353,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1325,7 +1361,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1333,7 +1369,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1341,7 +1377,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1349,7 +1385,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1363,14 +1399,75 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>